--- a/config/project/board_120KW_auto/BoardReport.xlsx
+++ b/config/project/board_120KW_auto/BoardReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\board_120KW_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A5456F16-FC35-410E-99B7-C80B5196FDA5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21500" windowHeight="10340" tabRatio="599"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21500" windowHeight="10340" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -382,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="321">
   <si>
     <t xml:space="preserve">TCCE </t>
   </si>
@@ -1783,13 +1784,105 @@
   </si>
   <si>
     <t>value106</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉电解锁</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁测试</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉电解锁指示灯黄灯亮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁测试指示灯黄灯亮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sult153</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esult156</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>result153</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>result156</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime153</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>time15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2001,7 +2094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2092,9 +2185,81 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2104,8 +2269,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2113,98 +2299,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2512,11 +2634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -2547,27 +2669,27 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="51" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="57" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F4" s="6"/>
@@ -2578,19 +2700,19 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
@@ -2606,71 +2728,71 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="38"/>
+      <c r="H7" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="63"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="56"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58" t="s">
+      <c r="E8" s="35"/>
+      <c r="F8" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="57" t="s">
+      <c r="G8" s="40"/>
+      <c r="H8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="63" t="s">
+      <c r="I8" s="35"/>
+      <c r="J8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="63"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="56"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="6"/>
       <c r="I9" s="5"/>
       <c r="J9" s="1"/>
@@ -2690,19 +2812,19 @@
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="18" t="s">
         <v>27</v>
       </c>
@@ -2711,109 +2833,109 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="31" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="58" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="60" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="42" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="59" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="45" t="s">
         <v>36</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="18" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="29"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
       <c r="J15" s="18" t="s">
         <v>45</v>
       </c>
       <c r="K15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="29"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37" t="s">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="19" t="s">
         <v>49</v>
       </c>
@@ -2826,20 +2948,20 @@
       <c r="I16" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="43" t="s">
+      <c r="K16" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="29"/>
+      <c r="L16" s="65"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="19" t="s">
         <v>55</v>
       </c>
@@ -2848,20 +2970,20 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="29"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="65"/>
     </row>
     <row r="18" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="19" t="s">
         <v>59</v>
       </c>
@@ -2882,15 +3004,15 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="19" t="s">
         <v>65</v>
       </c>
@@ -2903,19 +3025,19 @@
       <c r="I19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="60" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="19" t="s">
         <v>71</v>
       </c>
@@ -2928,15 +3050,15 @@
       <c r="I20" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="34"/>
-      <c r="K20" s="43"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="60"/>
     </row>
     <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
       <c r="F21" s="19" t="s">
         <v>75</v>
       </c>
@@ -2949,15 +3071,15 @@
       <c r="I21" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="43"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="60"/>
     </row>
     <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="19" t="s">
         <v>79</v>
       </c>
@@ -2970,17 +3092,17 @@
       <c r="I22" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="43"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="60"/>
     </row>
     <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="30" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="19" t="s">
         <v>84</v>
       </c>
@@ -2993,19 +3115,19 @@
       <c r="I23" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="60" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="19" t="s">
         <v>90</v>
       </c>
@@ -3018,15 +3140,15 @@
       <c r="I24" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="43"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="60"/>
     </row>
     <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="19" t="s">
         <v>94</v>
       </c>
@@ -3039,15 +3161,15 @@
       <c r="I25" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="43"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="60"/>
     </row>
     <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
       <c r="F26" s="19" t="s">
         <v>98</v>
       </c>
@@ -3060,19 +3182,19 @@
       <c r="I26" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="43"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="60"/>
     </row>
     <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
       <c r="F27" s="19" t="s">
         <v>104</v>
       </c>
@@ -3085,19 +3207,19 @@
       <c r="I27" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="K27" s="43" t="s">
+      <c r="K27" s="60" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
       <c r="F28" s="19" t="s">
         <v>110</v>
       </c>
@@ -3110,15 +3232,15 @@
       <c r="I28" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="34"/>
-      <c r="K28" s="43"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="60"/>
     </row>
     <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="19" t="s">
         <v>114</v>
       </c>
@@ -3131,15 +3253,15 @@
       <c r="I29" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="43"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="60"/>
     </row>
     <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="19" t="s">
         <v>118</v>
       </c>
@@ -3152,17 +3274,17 @@
       <c r="I30" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="43"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="60"/>
     </row>
     <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="30" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="19" t="s">
         <v>123</v>
       </c>
@@ -3175,19 +3297,19 @@
       <c r="I31" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="K31" s="43" t="s">
+      <c r="K31" s="60" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="19" t="s">
         <v>129</v>
       </c>
@@ -3200,15 +3322,15 @@
       <c r="I32" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="43"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="60"/>
     </row>
     <row r="33" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
       <c r="F33" s="19" t="s">
         <v>133</v>
       </c>
@@ -3221,15 +3343,15 @@
       <c r="I33" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="43"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="60"/>
     </row>
     <row r="34" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
       <c r="F34" s="19" t="s">
         <v>137</v>
       </c>
@@ -3242,19 +3364,19 @@
       <c r="I34" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J34" s="34"/>
-      <c r="K34" s="43"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="60"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
       <c r="F35" s="19" t="s">
         <v>143</v>
       </c>
@@ -3267,19 +3389,19 @@
       <c r="I35" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="34" t="s">
+      <c r="J35" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="43" t="s">
+      <c r="K35" s="60" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
       <c r="F36" s="19" t="s">
         <v>149</v>
       </c>
@@ -3292,17 +3414,17 @@
       <c r="I36" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="J36" s="34"/>
-      <c r="K36" s="43"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="60"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="30" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
       <c r="F37" s="19" t="s">
         <v>143</v>
       </c>
@@ -3315,19 +3437,19 @@
       <c r="I37" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J37" s="34" t="s">
+      <c r="J37" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="K37" s="43" t="s">
+      <c r="K37" s="60" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="19" t="s">
         <v>149</v>
       </c>
@@ -3340,19 +3462,19 @@
       <c r="I38" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="43"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="60"/>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="53" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="40"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="43"/>
       <c r="F39" s="19" t="s">
         <v>162</v>
       </c>
@@ -3373,13 +3495,13 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="30" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
       <c r="F40" s="19" t="s">
         <v>169</v>
       </c>
@@ -3392,19 +3514,19 @@
       <c r="I40" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="J40" s="31" t="s">
+      <c r="J40" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="K40" s="41" t="s">
+      <c r="K40" s="58" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
       <c r="F41" s="19" t="s">
         <v>175</v>
       </c>
@@ -3417,15 +3539,15 @@
       <c r="I41" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="J41" s="32"/>
-      <c r="K41" s="44"/>
+      <c r="J41" s="56"/>
+      <c r="K41" s="61"/>
     </row>
     <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
       <c r="F42" s="19" t="s">
         <v>179</v>
       </c>
@@ -3438,17 +3560,17 @@
       <c r="I42" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="J42" s="33"/>
-      <c r="K42" s="42"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="59"/>
     </row>
     <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="30" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
       <c r="F43" s="19" t="s">
         <v>184</v>
       </c>
@@ -3469,15 +3591,15 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="53" t="s">
+      <c r="A44" s="45"/>
+      <c r="B44" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
       <c r="F44" s="19" t="s">
         <v>162</v>
       </c>
@@ -3498,13 +3620,13 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="30" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="19" t="s">
         <v>169</v>
       </c>
@@ -3517,19 +3639,19 @@
       <c r="I45" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="J45" s="31" t="s">
+      <c r="J45" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="K45" s="41" t="s">
+      <c r="K45" s="58" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="19" t="s">
         <v>175</v>
       </c>
@@ -3542,15 +3664,15 @@
       <c r="I46" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="J46" s="32"/>
-      <c r="K46" s="44"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="61"/>
     </row>
     <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
       <c r="F47" s="19" t="s">
         <v>179</v>
       </c>
@@ -3563,17 +3685,17 @@
       <c r="I47" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="J47" s="33"/>
-      <c r="K47" s="42"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="59"/>
     </row>
     <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="30" t="s">
+      <c r="A48" s="45"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
       <c r="F48" s="19" t="s">
         <v>184</v>
       </c>
@@ -3593,24 +3715,24 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+    <row r="49" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="45"/>
       <c r="B49" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G49" s="37" t="s">
+      <c r="G49" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
       <c r="J49" s="18" t="s">
         <v>212</v>
       </c>
@@ -3618,24 +3740,24 @@
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+    <row r="50" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="45"/>
       <c r="B50" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
       <c r="F50" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G50" s="37" t="s">
+      <c r="G50" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
       <c r="J50" s="18" t="s">
         <v>217</v>
       </c>
@@ -3643,668 +3765,821 @@
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
-      <c r="B51" s="19" t="s">
+    <row r="51" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="45"/>
+      <c r="B51" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="H51" s="42"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="K51" s="72" t="s">
+        <v>319</v>
+      </c>
+      <c r="L51" s="29"/>
+    </row>
+    <row r="52" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="45"/>
+      <c r="B52" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="71" t="s">
+        <v>316</v>
+      </c>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="K52" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="L52" s="29"/>
+    </row>
+    <row r="53" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="45"/>
+      <c r="B53" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C53" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G51" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="K51" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="K52" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="37" t="s">
+      <c r="G53" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="K53" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>225</v>
+      </c>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G54" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="K54" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="45"/>
+      <c r="B55" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="18" t="s">
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="K53" s="20" t="s">
+      <c r="K55" s="20" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
-      <c r="B54" s="19" t="s">
+    <row r="56" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="45"/>
+      <c r="B56" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="30" t="s">
+      <c r="C56" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="19" t="s">
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G54" s="37" t="s">
+      <c r="G56" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="18" t="s">
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="K54" s="20" t="s">
+      <c r="K56" s="20" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
-      <c r="B55" s="37" t="s">
+    <row r="57" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="45"/>
+      <c r="B57" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="C55" s="30" t="s">
+      <c r="C57" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="23" t="s">
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="G55" s="35" t="s">
+      <c r="G57" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
-      <c r="J55" s="34" t="s">
+      <c r="H57" s="67"/>
+      <c r="I57" s="67"/>
+      <c r="J57" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="K55" s="45" t="s">
+      <c r="K57" s="62" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="23" t="s">
+    <row r="58" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G56" s="37" t="s">
+      <c r="G58" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="46"/>
-    </row>
-    <row r="57" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="63"/>
+    </row>
+    <row r="59" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B59" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="C59" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="23" t="s">
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="G57" s="64" t="s">
+      <c r="G59" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="46"/>
-    </row>
-    <row r="58" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="23" t="s">
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="63"/>
+    </row>
+    <row r="60" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="G58" s="37" t="s">
+      <c r="G60" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="47"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
-      <c r="B59" s="37" t="s">
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="64"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="45"/>
+      <c r="B61" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C61" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="19" t="s">
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="G59" s="37" t="s">
+      <c r="G61" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="34" t="s">
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="K59" s="43" t="s">
+      <c r="K61" s="60" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="30" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="19" t="s">
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G62" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="43"/>
-    </row>
-    <row r="61" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="37"/>
-      <c r="B61" s="37" t="s">
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="60"/>
+    </row>
+    <row r="63" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="45"/>
+      <c r="B63" s="45" t="s">
         <v>250</v>
       </c>
-      <c r="C61" s="30" t="s">
+      <c r="C63" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="19" t="s">
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="G61" s="37" t="s">
+      <c r="G63" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="34" t="s">
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="K61" s="43" t="s">
+      <c r="K63" s="60" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="37"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="19" t="s">
+    <row r="64" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="G62" s="37" t="s">
+      <c r="G64" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="43"/>
-    </row>
-    <row r="63" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="37"/>
-      <c r="B63" s="19" t="s">
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="60"/>
+    </row>
+    <row r="65" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="45"/>
+      <c r="B65" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C65" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="K63" s="20" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="37"/>
-      <c r="B64" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="K64" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
-      <c r="B65" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
       <c r="F65" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
+      <c r="G65" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
       <c r="J65" s="18" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K65" s="20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="37"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
+        <v>262</v>
+      </c>
+      <c r="C66" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
       <c r="F66" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
+      <c r="G66" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
       <c r="J66" s="18" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K66" s="20" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="37"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="45"/>
       <c r="B67" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
+        <v>266</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
       <c r="F67" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G67" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
+      <c r="G67" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
       <c r="J67" s="18" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K67" s="20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="37"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="45"/>
       <c r="B68" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
+        <v>268</v>
+      </c>
+      <c r="C68" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
       <c r="F68" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G68" s="37" t="s">
+      <c r="G68" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="K68" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="45"/>
+      <c r="B69" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="K69" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="45"/>
+      <c r="B70" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G70" s="45" t="s">
         <v>276</v>
       </c>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="18" t="s">
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="K68" s="20" t="s">
+      <c r="K70" s="20" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37" t="s">
+    <row r="71" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="45"/>
+      <c r="B71" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C71" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="23" t="s">
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G69" s="37" t="s">
+      <c r="G71" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="18" t="s">
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="K69" s="20" t="s">
+      <c r="K71" s="20" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="37"/>
-      <c r="B70" s="37"/>
-      <c r="C70" s="30" t="s">
+    <row r="72" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="45"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="23" t="s">
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="G70" s="37" t="s">
+      <c r="G72" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="18" t="s">
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="K70" s="20" t="s">
+      <c r="K72" s="20" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="37"/>
-      <c r="B71" s="19" t="s">
+    <row r="73" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="45"/>
+      <c r="B73" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C73" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="19" t="s">
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G71" s="37" t="s">
+      <c r="G73" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="18" t="s">
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="K71" s="20" t="s">
+      <c r="K73" s="20" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37"/>
-      <c r="B72" s="37" t="s">
+    <row r="74" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="45"/>
+      <c r="B74" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="C72" s="48" t="s">
+      <c r="C74" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="D72" s="48" t="s">
+      <c r="D74" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="E72" s="48"/>
-      <c r="F72" s="49" t="s">
+      <c r="E74" s="50"/>
+      <c r="F74" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="31" t="s">
+      <c r="G74" s="51"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="K72" s="45" t="s">
+      <c r="K74" s="62" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="37"/>
-      <c r="B73" s="37"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48" t="s">
+    <row r="75" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="E73" s="48"/>
-      <c r="F73" s="49" t="s">
+      <c r="E75" s="50"/>
+      <c r="F75" s="51" t="s">
         <v>293</v>
       </c>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="46"/>
-    </row>
-    <row r="74" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="37"/>
-      <c r="B74" s="37"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48" t="s">
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="63"/>
+    </row>
+    <row r="76" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="E74" s="48"/>
-      <c r="F74" s="49" t="s">
+      <c r="E76" s="50"/>
+      <c r="F76" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="46"/>
-    </row>
-    <row r="75" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="37"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="48" t="s">
+      <c r="G76" s="51"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="63"/>
+    </row>
+    <row r="77" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="D75" s="48" t="s">
+      <c r="D77" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="E75" s="48"/>
-      <c r="F75" s="49" t="s">
+      <c r="E77" s="50"/>
+      <c r="F77" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="46"/>
-    </row>
-    <row r="76" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="37"/>
-      <c r="B76" s="37"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48" t="s">
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="56"/>
+      <c r="K77" s="63"/>
+    </row>
+    <row r="78" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="50" t="s">
         <v>298</v>
       </c>
-      <c r="E76" s="48"/>
-      <c r="F76" s="49" t="s">
+      <c r="E78" s="50"/>
+      <c r="F78" s="51" t="s">
         <v>299</v>
       </c>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="46"/>
-    </row>
-    <row r="77" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="37"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48" t="s">
+      <c r="G78" s="51"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="63"/>
+    </row>
+    <row r="79" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="50"/>
+      <c r="D79" s="50" t="s">
         <v>300</v>
       </c>
-      <c r="E77" s="48"/>
-      <c r="F77" s="49" t="s">
+      <c r="E79" s="50"/>
+      <c r="F79" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="47"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C78" s="24" t="s">
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="64"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C80" s="24" t="s">
         <v>301</v>
       </c>
-      <c r="J78" s="25"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="14" t="s">
+      <c r="J80" s="25"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C80" s="7" t="str">
-        <f>IF(COUNTIF(J12:J79,"合格")=36,"合格","不合格")</f>
+      <c r="C82" s="7" t="str">
+        <f>IF(COUNTIF(J12:J81,"合格")=36,"合格","不合格")</f>
         <v>不合格</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D82" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E80" s="50" t="s">
+      <c r="E82" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="F80" s="50"/>
-      <c r="G80" s="11" t="s">
+      <c r="F82" s="36"/>
+      <c r="G82" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="H80" s="51" t="s">
+      <c r="H82" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="I80" s="51"/>
-      <c r="J80" s="12" t="s">
+      <c r="I82" s="34"/>
+      <c r="J82" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="K80" s="26" t="s">
+      <c r="K82" s="26" t="s">
         <v>308</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="150">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
+  <mergeCells count="154">
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="C45:E47"/>
+    <mergeCell ref="C27:E30"/>
+    <mergeCell ref="C31:E34"/>
+    <mergeCell ref="C40:E42"/>
+    <mergeCell ref="C19:E22"/>
+    <mergeCell ref="C23:E26"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C57:E58"/>
+    <mergeCell ref="C35:E36"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="J57:J60"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J74:J79"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="K63:K64"/>
+    <mergeCell ref="K74:K79"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:I79"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A59:A79"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C59:E60"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="C63:E64"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C48:E48"/>
     <mergeCell ref="C49:E49"/>
@@ -4318,127 +4593,30 @@
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="C61:E62"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A77"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C57:E58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J72:J77"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K72:K77"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="C45:E47"/>
-    <mergeCell ref="C27:E30"/>
-    <mergeCell ref="C31:E34"/>
-    <mergeCell ref="C40:E42"/>
-    <mergeCell ref="C19:E22"/>
-    <mergeCell ref="C23:E26"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C55:E56"/>
-    <mergeCell ref="C35:E36"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A1:K82">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:K50 A53:K84 A51:G52 J51:K52">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/config/project/board_120KW_auto/BoardReport.xlsx
+++ b/config/project/board_120KW_auto/BoardReport.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\board_120KW_auto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A5456F16-FC35-410E-99B7-C80B5196FDA5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21500" windowHeight="10340" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -378,12 +372,12 @@
     <definedName name="遥信8">#REF!</definedName>
     <definedName name="遥信9">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275">
   <si>
     <t xml:space="preserve">TCCE </t>
   </si>
@@ -1168,13 +1162,10 @@
     </r>
   </si>
   <si>
-    <t>看门狗功能</t>
-  </si>
-  <si>
-    <t>看门狗短路片为拆去状态，看门狗有效</t>
-  </si>
-  <si>
-    <t>result100</t>
+    <t>掉电解锁</t>
+  </si>
+  <si>
+    <t>掉电解锁指示灯黄灯亮</t>
   </si>
   <si>
     <r>
@@ -1183,8 +1174,9 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>time</t>
+      <t>re</t>
     </r>
     <r>
       <rPr>
@@ -1192,21 +1184,13 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>100</t>
+      <t>sult153</t>
     </r>
   </si>
   <si>
-    <t>升级程序</t>
-  </si>
-  <si>
-    <t>升级正确程序</t>
-  </si>
-  <si>
-    <t>程序版本</t>
-  </si>
-  <si>
-    <t>result101</t>
+    <t>result153</t>
   </si>
   <si>
     <r>
@@ -1215,8 +1199,9 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>time</t>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -1224,18 +1209,16 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>101</t>
+      <t>ime153</t>
     </r>
   </si>
   <si>
-    <t>看门狗出厂设备</t>
-  </si>
-  <si>
-    <t>看门狗短路插片JP2升完程序后拆下</t>
-  </si>
-  <si>
-    <t>result102</t>
+    <t>解锁测试</t>
+  </si>
+  <si>
+    <t>解锁测试指示灯黄灯亮</t>
   </si>
   <si>
     <r>
@@ -1244,8 +1227,9 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>time</t>
+      <t>r</t>
     </r>
     <r>
       <rPr>
@@ -1253,8 +1237,34 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>102</t>
+      <t>esult156</t>
+    </r>
+  </si>
+  <si>
+    <t>result156</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>time15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
     </r>
   </si>
   <si>
@@ -1350,6 +1360,9 @@
     <t>写入时间</t>
   </si>
   <si>
+    <t>2017/4/12  15:30:45</t>
+  </si>
+  <si>
     <t>result106</t>
   </si>
   <si>
@@ -1382,48 +1395,10 @@
     <t>读回时间</t>
   </si>
   <si>
+    <t>value106</t>
+  </si>
+  <si>
     <t>断电保存</t>
-  </si>
-  <si>
-    <t>选枪按键测试（key）</t>
-  </si>
-  <si>
-    <t>按下枪1</t>
-  </si>
-  <si>
-    <t>返回键值</t>
-  </si>
-  <si>
-    <t>value107</t>
-  </si>
-  <si>
-    <t>result{107,108}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>107</t>
-    </r>
-  </si>
-  <si>
-    <t>按下枪2</t>
-  </si>
-  <si>
-    <t>value108</t>
   </si>
   <si>
     <t>485及读卡器口测试（uart））</t>
@@ -1467,35 +1442,6 @@
     <t>result110</t>
   </si>
   <si>
-    <t>GPRS功能</t>
-  </si>
-  <si>
-    <t>能连接、检测到SIM卡、上线、PING外网</t>
-  </si>
-  <si>
-    <t>result111</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>time</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>111</t>
-    </r>
-  </si>
-  <si>
     <t>LED板测试（disp）</t>
   </si>
   <si>
@@ -1572,79 +1518,10 @@
     </r>
   </si>
   <si>
-    <t>result120</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ime120</t>
-    </r>
-  </si>
-  <si>
-    <t>升级正确BOOT程序</t>
-  </si>
-  <si>
-    <t>result118</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ime118</t>
-    </r>
-  </si>
-  <si>
-    <t>升级正确应用程序</t>
-  </si>
-  <si>
-    <t>result119</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ime119</t>
-    </r>
+    <t>看门狗出厂设备</t>
+  </si>
+  <si>
+    <t>看门狗短路插片JP2升完程序后拆下</t>
   </si>
   <si>
     <t>result117</t>
@@ -1670,68 +1547,6 @@
     </r>
   </si>
   <si>
-    <t>软件版本检查</t>
-  </si>
-  <si>
-    <t>DCM板（K60)</t>
-  </si>
-  <si>
-    <t>BOOT版本检查</t>
-  </si>
-  <si>
-    <t>value122</t>
-  </si>
-  <si>
-    <t>result122</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ime122</t>
-    </r>
-  </si>
-  <si>
-    <t>K60应用程序版本检查</t>
-  </si>
-  <si>
-    <t>value123</t>
-  </si>
-  <si>
-    <t>K60应用程序编译时间</t>
-  </si>
-  <si>
-    <t>value126</t>
-  </si>
-  <si>
-    <t>控制板（K64)</t>
-  </si>
-  <si>
-    <t>value124</t>
-  </si>
-  <si>
-    <t>K64应用程序版本检查</t>
-  </si>
-  <si>
-    <t>value125</t>
-  </si>
-  <si>
-    <t>K64应用程序编译时间</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -1744,7 +1559,7 @@
       <rPr>
         <sz val="9"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>X</t>
     </r>
@@ -1778,112 +1593,18 @@
   <si>
     <t>陶斯君</t>
   </si>
-  <si>
-    <t>2017/4/12  15:30:45</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>value106</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉电解锁</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁测试</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉电解锁指示灯黄灯亮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁测试指示灯黄灯亮</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>re</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sult153</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>esult156</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>result153</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>result156</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime153</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>time15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1936,12 +1657,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1955,6 +1670,157 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1963,26 +1829,204 @@
     <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2088,196 +2132,393 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2290,59 +2531,83 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2629,1863 +2894,1590 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="7.9140625" style="11" customWidth="1"/>
-    <col min="5" max="8" width="8.6640625" style="11"/>
-    <col min="9" max="9" width="8.6640625" style="2"/>
-    <col min="10" max="10" width="8.6640625" style="12"/>
-    <col min="11" max="11" width="15.1640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" style="13" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.1666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.91666666666667" style="4" customWidth="1"/>
+    <col min="5" max="8" width="8.66666666666667" style="4"/>
+    <col min="9" max="9" width="8.66666666666667" style="5"/>
+    <col min="10" max="10" width="8.66666666666667" style="3"/>
+    <col min="11" max="11" width="15.1666666666667" style="3" customWidth="1"/>
+    <col min="12" max="12" width="18.1666666666667" style="6" customWidth="1"/>
+    <col min="13" max="16384" width="8.66666666666667" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+    <row r="1" ht="25.5" spans="2:3">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.25">
-      <c r="F2" s="15" t="s">
+    <row r="2" ht="20.25" spans="6:6">
+      <c r="F2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+    </row>
+    <row r="4" spans="6:11">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:11">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="15"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="35" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="38" t="s">
+      <c r="I7" s="13"/>
+      <c r="J7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="40" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="35" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="38" t="s">
+      <c r="I8" s="13"/>
+      <c r="J8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="28" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="22"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:11">
+      <c r="A11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="18" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+    <row r="12" ht="26" customHeight="1" spans="1:11">
+      <c r="A12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="55" t="s">
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="58" t="s">
+      <c r="K12" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49" t="s">
+    <row r="13" ht="26" customHeight="1" spans="1:11">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="59" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+    <row r="14" ht="28" customHeight="1" spans="1:11">
+      <c r="A14" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="19" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="18" t="s">
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="65"/>
-    </row>
-    <row r="15" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="19" t="s">
+    </row>
+    <row r="15" ht="26.5" customHeight="1" spans="1:11">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="19" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="18" t="s">
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="65"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45" t="s">
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="19" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="46" t="s">
+      <c r="J16" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="60" t="s">
+      <c r="K16" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="L16" s="65"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="19" t="s">
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="60"/>
-      <c r="L17" s="65"/>
-    </row>
-    <row r="18" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="19" t="s">
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="43"/>
+    </row>
+    <row r="18" ht="28" customHeight="1" spans="1:11">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="19" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="19" t="s">
+      <c r="I18" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45" t="s">
+    <row r="19" customHeight="1" spans="1:11">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="19" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="J19" s="46" t="s">
+      <c r="J19" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="K19" s="60" t="s">
+      <c r="K19" s="43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="19" t="s">
+    <row r="20" customHeight="1" spans="1:11">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="19" t="s">
+      <c r="I20" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="60"/>
-    </row>
-    <row r="21" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="19" t="s">
+      <c r="J20" s="23"/>
+      <c r="K20" s="43"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:11">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="60"/>
-    </row>
-    <row r="22" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="19" t="s">
+      <c r="J21" s="23"/>
+      <c r="K21" s="43"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:11">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="60"/>
-    </row>
-    <row r="23" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="44" t="s">
+      <c r="J22" s="23"/>
+      <c r="K22" s="43"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:11">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="19" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="19" t="s">
+      <c r="I23" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="46" t="s">
+      <c r="J23" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="60" t="s">
+      <c r="K23" s="43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="19" t="s">
+    <row r="24" customHeight="1" spans="1:11">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I24" s="19" t="s">
+      <c r="I24" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="60"/>
-    </row>
-    <row r="25" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="19" t="s">
+      <c r="J24" s="23"/>
+      <c r="K24" s="43"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:11">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="19" t="s">
+      <c r="H25" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="60"/>
-    </row>
-    <row r="26" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="19" t="s">
+      <c r="J25" s="23"/>
+      <c r="K25" s="43"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:11">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="J26" s="46"/>
-      <c r="K26" s="60"/>
-    </row>
-    <row r="27" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45" t="s">
+      <c r="J26" s="23"/>
+      <c r="K26" s="43"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:11">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="19" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="46" t="s">
+      <c r="J27" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="K27" s="60" t="s">
+      <c r="K27" s="43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="19" t="s">
+    <row r="28" customHeight="1" spans="1:11">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="46"/>
-      <c r="K28" s="60"/>
-    </row>
-    <row r="29" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="19" t="s">
+      <c r="J28" s="23"/>
+      <c r="K28" s="43"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:11">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="60"/>
-    </row>
-    <row r="30" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="19" t="s">
+      <c r="J29" s="23"/>
+      <c r="K29" s="43"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:11">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="60"/>
-    </row>
-    <row r="31" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="44" t="s">
+      <c r="J30" s="23"/>
+      <c r="K30" s="43"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:11">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="19" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="J31" s="46" t="s">
+      <c r="J31" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="K31" s="60" t="s">
+      <c r="K31" s="43" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="19" t="s">
+    <row r="32" customHeight="1" spans="1:11">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="19" t="s">
+      <c r="H32" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="J32" s="46"/>
-      <c r="K32" s="60"/>
-    </row>
-    <row r="33" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="19" t="s">
+      <c r="J32" s="23"/>
+      <c r="K32" s="43"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:11">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H33" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I33" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="J33" s="46"/>
-      <c r="K33" s="60"/>
-    </row>
-    <row r="34" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="19" t="s">
+      <c r="J33" s="23"/>
+      <c r="K33" s="43"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:11">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="I34" s="19" t="s">
+      <c r="I34" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="J34" s="46"/>
-      <c r="K34" s="60"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45" t="s">
+      <c r="J34" s="23"/>
+      <c r="K34" s="43"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="19" t="s">
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H35" s="19" t="s">
+      <c r="H35" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="I35" s="19" t="s">
+      <c r="I35" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="46" t="s">
+      <c r="J35" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="K35" s="60" t="s">
+      <c r="K35" s="43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="19" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="J36" s="46"/>
-      <c r="K36" s="60"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="44" t="s">
+      <c r="J36" s="23"/>
+      <c r="K36" s="43"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="19" t="s">
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H37" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I37" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="J37" s="46" t="s">
+      <c r="J37" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="K37" s="60" t="s">
+      <c r="K37" s="43" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="19" t="s">
+    <row r="38" spans="1:11">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="G38" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="H38" s="19" t="s">
+      <c r="H38" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="I38" s="19" t="s">
+      <c r="I38" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="J38" s="46"/>
-      <c r="K38" s="60"/>
-    </row>
-    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="52" t="s">
+      <c r="J38" s="23"/>
+      <c r="K38" s="43"/>
+    </row>
+    <row r="39" ht="15" customHeight="1" spans="1:11">
+      <c r="A39" s="25"/>
+      <c r="B39" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="19" t="s">
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="H39" s="21" t="s">
+      <c r="H39" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="I39" s="19" t="s">
+      <c r="I39" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="J39" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="K39" s="22" t="s">
+      <c r="K39" s="44" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="44" t="s">
+    <row r="40" ht="18" customHeight="1" spans="1:11">
+      <c r="A40" s="25"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="19" t="s">
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="H40" s="19" t="s">
+      <c r="H40" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I40" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="J40" s="55" t="s">
+      <c r="J40" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="K40" s="58" t="s">
+      <c r="K40" s="40" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="19" t="s">
+    <row r="41" ht="18" customHeight="1" spans="1:11">
+      <c r="A41" s="25"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H41" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="I41" s="19" t="s">
+      <c r="I41" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="J41" s="56"/>
-      <c r="K41" s="61"/>
-    </row>
-    <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="19" t="s">
+      <c r="J41" s="45"/>
+      <c r="K41" s="46"/>
+    </row>
+    <row r="42" ht="18" customHeight="1" spans="1:11">
+      <c r="A42" s="25"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H42" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="I42" s="19" t="s">
+      <c r="I42" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="J42" s="57"/>
-      <c r="K42" s="59"/>
-    </row>
-    <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="44" t="s">
+      <c r="J42" s="41"/>
+      <c r="K42" s="42"/>
+    </row>
+    <row r="43" ht="18" customHeight="1" spans="1:11">
+      <c r="A43" s="25"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="19" t="s">
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="H43" s="19" t="s">
+      <c r="H43" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="I43" s="19" t="s">
+      <c r="I43" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="J43" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="K43" s="22" t="s">
+      <c r="K43" s="44" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
-      <c r="B44" s="52" t="s">
+    <row r="44" ht="18" customHeight="1" spans="1:11">
+      <c r="A44" s="25"/>
+      <c r="B44" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="19" t="s">
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="I44" s="19" t="s">
+      <c r="I44" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="J44" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="K44" s="22" t="s">
+      <c r="K44" s="44" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="44" t="s">
+    <row r="45" ht="18" customHeight="1" spans="1:11">
+      <c r="A45" s="25"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="19" t="s">
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="I45" s="19" t="s">
+      <c r="I45" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="J45" s="55" t="s">
+      <c r="J45" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="K45" s="58" t="s">
+      <c r="K45" s="40" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="19" t="s">
+    <row r="46" ht="18" customHeight="1" spans="1:11">
+      <c r="A46" s="25"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="G46" s="19" t="s">
+      <c r="G46" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="H46" s="19" t="s">
+      <c r="H46" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="I46" s="19" t="s">
+      <c r="I46" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="J46" s="56"/>
-      <c r="K46" s="61"/>
-    </row>
-    <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="19" t="s">
+      <c r="J46" s="45"/>
+      <c r="K46" s="46"/>
+    </row>
+    <row r="47" ht="18" customHeight="1" spans="1:11">
+      <c r="A47" s="25"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="G47" s="19" t="s">
+      <c r="G47" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="H47" s="19" t="s">
+      <c r="H47" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="I47" s="19" t="s">
+      <c r="I47" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="J47" s="57"/>
-      <c r="K47" s="59"/>
-    </row>
-    <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="44" t="s">
+      <c r="J47" s="41"/>
+      <c r="K47" s="42"/>
+    </row>
+    <row r="48" ht="18" customHeight="1" spans="1:11">
+      <c r="A48" s="25"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="19" t="s">
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="G48" s="19" t="s">
+      <c r="G48" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="H48" s="19" t="s">
+      <c r="H48" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="I48" s="19" t="s">
+      <c r="I48" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="K48" s="22" t="s">
+      <c r="K48" s="44" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
-      <c r="B49" s="19" t="s">
+    <row r="49" ht="28" customHeight="1" spans="1:11">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="19" t="s">
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G49" s="45" t="s">
+      <c r="G49" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="K49" s="20" t="s">
+      <c r="H49" s="31"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="23" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
-      <c r="B50" s="19" t="s">
+      <c r="K49" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C50" s="44" t="s">
+    </row>
+    <row r="50" ht="28" customHeight="1" spans="1:11">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="23" t="s">
+      <c r="C50" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45"/>
-      <c r="J50" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="K50" s="20" t="s">
+      <c r="H50" s="31"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="23" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
-      <c r="B51" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="C51" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="32" t="s">
+      <c r="K50" s="43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" ht="23" customHeight="1" spans="1:11">
+      <c r="A51" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K51" s="43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" ht="28" customHeight="1" spans="1:11">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="71" t="s">
-        <v>315</v>
-      </c>
-      <c r="H51" s="42"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="K51" s="72" t="s">
-        <v>319</v>
-      </c>
-      <c r="L51" s="29"/>
-    </row>
-    <row r="52" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
-      <c r="B52" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="C52" s="70" t="s">
-        <v>314</v>
-      </c>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="32" t="s">
+      <c r="G52" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K52" s="43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" ht="28" customHeight="1" spans="1:11">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G52" s="71" t="s">
-        <v>316</v>
-      </c>
-      <c r="H52" s="42"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="K52" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="L52" s="29"/>
-    </row>
-    <row r="53" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C53" s="44" t="s">
+      <c r="G53" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K53" s="43" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" ht="26.5" customHeight="1" spans="1:11">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="K54" s="47" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" ht="26.5" customHeight="1" spans="1:11">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="48"/>
+    </row>
+    <row r="56" ht="26.5" customHeight="1" spans="1:11">
+      <c r="A56" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="19" t="s">
+      <c r="B56" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="48"/>
+    </row>
+    <row r="57" ht="26.5" customHeight="1" spans="1:11">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="49"/>
+    </row>
+    <row r="58" ht="21.5" customHeight="1" spans="1:11">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="K58" s="43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="59" ht="21.5" customHeight="1" spans="1:11">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="43"/>
+    </row>
+    <row r="60" ht="41" customHeight="1" spans="1:11">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G53" s="45" t="s">
-        <v>221</v>
-      </c>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="K53" s="20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>225</v>
-      </c>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="G54" s="45" t="s">
-        <v>226</v>
-      </c>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45"/>
-      <c r="J54" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="K54" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
-      <c r="B55" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
-      <c r="F55" s="19" t="s">
+      <c r="G60" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="K60" s="43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" ht="34.5" customHeight="1" spans="1:11">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G55" s="45" t="s">
-        <v>229</v>
-      </c>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45"/>
-      <c r="J55" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="K55" s="20" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
-      <c r="B56" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="19" t="s">
+      <c r="G61" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="K61" s="43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" ht="41" customHeight="1" spans="1:11">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="45" t="s">
-        <v>231</v>
-      </c>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45"/>
-      <c r="J56" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="K56" s="20" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="C57" s="44" t="s">
-        <v>234</v>
-      </c>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="G57" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="K57" s="62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="G58" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="46"/>
-      <c r="K58" s="63"/>
-    </row>
-    <row r="59" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="B59" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="G59" s="68" t="s">
-        <v>310</v>
-      </c>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="63"/>
-    </row>
-    <row r="60" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="G60" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="46"/>
-      <c r="K60" s="64"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
-      <c r="B61" s="45" t="s">
-        <v>242</v>
-      </c>
-      <c r="C61" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G61" s="45" t="s">
-        <v>245</v>
-      </c>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="K61" s="60" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G62" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="60"/>
-    </row>
-    <row r="63" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
-      <c r="B63" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="G63" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="K63" s="60" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
-      <c r="B64" s="45"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="G64" s="45" t="s">
+      <c r="G62" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="60"/>
-    </row>
-    <row r="65" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
-      <c r="B65" s="19" t="s">
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="K62" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="C65" s="44" t="s">
+    </row>
+    <row r="63" ht="41" customHeight="1" spans="1:11">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="19" t="s">
+      <c r="C63" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="K65" s="20" t="s">
+      <c r="G63" s="25" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
-      <c r="B66" s="19" t="s">
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="K63" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="C66" s="44" t="s">
+    </row>
+    <row r="64" ht="28" customHeight="1" spans="1:11">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="19" t="s">
+      <c r="C64" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="K66" s="20" t="s">
+      <c r="G64" s="25" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
-      <c r="B67" s="19" t="s">
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="K64" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="C67" s="44" t="s">
-        <v>263</v>
-      </c>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" s="45" t="s">
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="K67" s="20" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="45"/>
-      <c r="B68" s="19" t="s">
+    </row>
+    <row r="67" spans="2:11">
+      <c r="B67" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C67" s="38" t="str">
+        <f>IF(COUNTIF(J12:J66,"合格")=36,"合格","不合格")</f>
+        <v>不合格</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="45" t="s">
+      <c r="E67" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="K68" s="20" t="s">
+      <c r="F67" s="38"/>
+      <c r="G67" s="4" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="41" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="45"/>
-      <c r="B69" s="19" t="s">
+      <c r="H67" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="44" t="s">
+      <c r="I67" s="12"/>
+      <c r="J67" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G69" s="45" t="s">
+      <c r="K67" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="K69" s="20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="45"/>
-      <c r="B70" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G70" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="K70" s="20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="45"/>
-      <c r="B71" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="C71" s="44" t="s">
-        <v>278</v>
-      </c>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="G71" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="H71" s="45"/>
-      <c r="I71" s="45"/>
-      <c r="J71" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="K71" s="20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="45"/>
-      <c r="B72" s="45"/>
-      <c r="C72" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="G72" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="H72" s="45"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="K72" s="20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="45"/>
-      <c r="B73" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G73" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="H73" s="45"/>
-      <c r="I73" s="45"/>
-      <c r="J73" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="K73" s="20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C74" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="D74" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="E74" s="50"/>
-      <c r="F74" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="G74" s="51"/>
-      <c r="H74" s="51"/>
-      <c r="I74" s="51"/>
-      <c r="J74" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="K74" s="62" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="45"/>
-      <c r="B75" s="45"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="E75" s="50"/>
-      <c r="F75" s="51" t="s">
-        <v>293</v>
-      </c>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="56"/>
-      <c r="K75" s="63"/>
-    </row>
-    <row r="76" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="45"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="E76" s="50"/>
-      <c r="F76" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="G76" s="51"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="56"/>
-      <c r="K76" s="63"/>
-    </row>
-    <row r="77" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="D77" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="E77" s="50"/>
-      <c r="F77" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="G77" s="51"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="51"/>
-      <c r="J77" s="56"/>
-      <c r="K77" s="63"/>
-    </row>
-    <row r="78" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="50"/>
-      <c r="D78" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="E78" s="50"/>
-      <c r="F78" s="51" t="s">
-        <v>299</v>
-      </c>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="56"/>
-      <c r="K78" s="63"/>
-    </row>
-    <row r="79" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="45"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="E79" s="50"/>
-      <c r="F79" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="G79" s="51"/>
-      <c r="H79" s="51"/>
-      <c r="I79" s="51"/>
-      <c r="J79" s="57"/>
-      <c r="K79" s="64"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C80" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="J80" s="25"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="C82" s="7" t="str">
-        <f>IF(COUNTIF(J12:J81,"合格")=36,"合格","不合格")</f>
-        <v>不合格</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E82" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="F82" s="36"/>
-      <c r="G82" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="H82" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="I82" s="34"/>
-      <c r="J82" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="K82" s="26" t="s">
-        <v>308</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="C45:E47"/>
-    <mergeCell ref="C27:E30"/>
-    <mergeCell ref="C31:E34"/>
-    <mergeCell ref="C40:E42"/>
-    <mergeCell ref="C19:E22"/>
-    <mergeCell ref="C23:E26"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C57:E58"/>
-    <mergeCell ref="C35:E36"/>
-    <mergeCell ref="C37:E38"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="J57:J60"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G60:I60"/>
+  <mergeCells count="115">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C43:E43"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="J74:J79"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A50"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="J58:J59"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="K19:K22"/>
@@ -4496,131 +4488,29 @@
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="K40:K42"/>
     <mergeCell ref="K45:K47"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="K63:K64"/>
-    <mergeCell ref="K74:K79"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:I79"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A59:A79"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B27:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C59:E60"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="C63:E64"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="K54:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="C45:E47"/>
+    <mergeCell ref="C27:E30"/>
+    <mergeCell ref="C31:E34"/>
+    <mergeCell ref="C40:E42"/>
+    <mergeCell ref="C19:E22"/>
+    <mergeCell ref="C23:E26"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C35:E36"/>
+    <mergeCell ref="C37:E38"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="C58:E59"/>
+    <mergeCell ref="C54:E55"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A1:K50 A53:K84 A51:G52 J51:K52">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:K48 J49:K50 A49:G50 A51:K69">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.39305555555555599" right="0.31388888888888899" top="0.39305555555555599" bottom="0.74791666666666701" header="0.196527777777778" footer="0.31388888888888899"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.393055555555556" right="0.313888888888889" top="0.393055555555556" bottom="0.747916666666667" header="0.196527777777778" footer="0.313888888888889"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>